--- a/Assets/StreamingAssets/StoryScript28.xlsx
+++ b/Assets/StreamingAssets/StoryScript28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B4985-B655-2540-B8D7-02A3C88431F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955857D8-722B-DA4F-83C9-F34689C03E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,14 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryScript28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,39 +142,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>No. I still have one final piece of evidence. This evidence proves that the accomplice can only be Madam Mei!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(This is our final chance to present evidence—think carefully before making your choice!)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Madam and the Lord have been married for decades, and their relationship has always been harmonious. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you’re not mistaken?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WrongChoice9</t>
+  </si>
+  <si>
     <t>StoryScript29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No. I still have one final piece of evidence. This evidence proves that the accomplice can only be Madam Mei!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bridge Remains</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>White Powder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scent Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fake Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Powder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scent Clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(This is our final chance to present evidence—think carefully before making your choice!)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Madam and the Lord have been married for decades, and their relationship has always been harmonious. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you sure you’re not mistaken?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +212,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,12 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -662,13 +645,13 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -691,13 +674,13 @@
     </row>
     <row r="3" spans="1:16" ht="17">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -714,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -731,7 +714,7 @@
     </row>
     <row r="5" spans="1:16" ht="51">
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -744,49 +727,38 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="17">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="8" spans="1:16" ht="17">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
